--- a/data/trans_orig/Q03B_LAB-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_LAB-Provincia-trans_orig.xlsx
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7094037891777819</v>
+        <v>0.69659902407046</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.32858232664655</v>
+        <v>1.328553290939474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.424649600690573</v>
+        <v>1.421107894431824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.285524772833465</v>
+        <v>2.280437838319603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.942877240926462</v>
+        <v>3.894641056603324</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.287024241829866</v>
+        <v>3.286024019951915</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.495377915523044</v>
+        <v>1.507014335824936</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.67537017574862</v>
+        <v>2.655029705014984</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.405645813831488</v>
+        <v>2.410439608864273</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9205360345905229</v>
+        <v>0.912748901004749</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.724904966088491</v>
+        <v>1.72062714112322</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.81639773012413</v>
+        <v>1.790051267290144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.756192786595591</v>
+        <v>2.734798671081776</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.574703201456462</v>
+        <v>4.528460822216481</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.921411677052256</v>
+        <v>3.917623519659518</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.803945985886021</v>
+        <v>1.801371825820221</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.103218749889431</v>
+        <v>3.092319584623977</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.811338916312603</v>
+        <v>2.813486497856568</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.581945625519908</v>
+        <v>1.573058937860869</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.056539727835207</v>
+        <v>1.047231045102869</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.28832030413391</v>
+        <v>1.298958960331324</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.307834710601747</v>
+        <v>4.343113350307225</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.623151307752042</v>
+        <v>3.601453995659478</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.65162886809216</v>
+        <v>3.646408591427841</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>3.004144106608093</v>
+        <v>3.01036069372854</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.382798106275803</v>
+        <v>2.356982728794689</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.578054590868033</v>
+        <v>2.575842555513185</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.939561270768194</v>
+        <v>1.941127198698041</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.357979131541303</v>
+        <v>1.354795438905492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.561174809031207</v>
+        <v>1.559940612426251</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.775913358182019</v>
+        <v>4.796649594421865</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.018862117184969</v>
+        <v>4.021533553988866</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.986468353914364</v>
+        <v>3.985540099337967</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.34237578196052</v>
+        <v>3.345180574663714</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.689970256388786</v>
+        <v>2.680878774200713</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.833613565370778</v>
+        <v>2.843950572118675</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4946451558830375</v>
+        <v>0.5034822844395969</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9798032082041606</v>
+        <v>0.9747200219595148</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.542106585028714</v>
+        <v>1.536946141503689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.74215389820325</v>
+        <v>2.757721363793088</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.909951258287453</v>
+        <v>2.911527638420143</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.764393511847444</v>
+        <v>2.781541741220564</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.652541218713901</v>
+        <v>1.669301386452061</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.996438645016305</v>
+        <v>1.999391044091604</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.221383765273184</v>
+        <v>2.211418684897583</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6937650128800413</v>
+        <v>0.702655195870632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.255086756108961</v>
+        <v>1.254914132328624</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.865465035012314</v>
+        <v>1.863494988949129</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.223718873965948</v>
+        <v>3.241604800451314</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.349590874510869</v>
+        <v>3.329244325848536</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.039957812416381</v>
+        <v>3.057183032651706</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.997310063995983</v>
+        <v>1.991343807565662</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.288378425099109</v>
+        <v>2.282740632010149</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.441555695044836</v>
+        <v>2.443267107526026</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5740305057849402</v>
+        <v>0.5792268616395179</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.671295240736936</v>
+        <v>1.687000850311416</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.60443464918735</v>
+        <v>1.596339494708234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.587834613468935</v>
+        <v>2.585929776121807</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.015799164117922</v>
+        <v>4.022635031864621</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.256799924749731</v>
+        <v>3.282297895472009</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.607696795087376</v>
+        <v>1.610656383098854</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.936522330479462</v>
+        <v>2.925508335058828</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.489999307092118</v>
+        <v>2.489971294006653</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8107523233304353</v>
+        <v>0.8346056986517466</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.074426629430608</v>
+        <v>2.067984703036154</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.91839329811074</v>
+        <v>1.913495277444317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.020002341670171</v>
+        <v>3.036296996510405</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.552200407066421</v>
+        <v>4.56926355000791</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.709106009428781</v>
+        <v>3.695723336498144</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.899469080050454</v>
+        <v>1.912879920213801</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.30589351976819</v>
+        <v>3.312471225338713</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.781959294760195</v>
+        <v>2.791707954121238</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.134116531546861</v>
+        <v>1.119129858546185</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8267388845291062</v>
+        <v>0.8364455852350323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.808024872731966</v>
+        <v>1.821507496368903</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.768174743470737</v>
+        <v>3.796172965554961</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.262561444916668</v>
+        <v>3.272959317842552</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.655877363360292</v>
+        <v>4.628277585276874</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.507128375239021</v>
+        <v>2.530538519388942</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.087000860705103</v>
+        <v>2.112991866179073</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.276932231118161</v>
+        <v>3.266364344227243</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.628338020708074</v>
+        <v>1.636918518213911</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.227449089949092</v>
+        <v>1.213316995830803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.183473725133088</v>
+        <v>2.172694165805098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.435108170459418</v>
+        <v>4.48889137326048</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.869598850136755</v>
+        <v>3.887995669834552</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.148907280716275</v>
+        <v>5.153433065065637</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.048210478231615</v>
+        <v>3.043085077642924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.537936578917332</v>
+        <v>2.560906521453195</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.709289876526283</v>
+        <v>3.695123384493189</v>
       </c>
     </row>
     <row r="19">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5979923302864795</v>
+        <v>0.5921195771895233</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.022002391018802</v>
+        <v>1.024895389611206</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.716503894613243</v>
+        <v>1.699917780594514</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.655105810999621</v>
+        <v>2.642287648961925</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.167220604954704</v>
+        <v>3.175136537022645</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.329094643484023</v>
+        <v>3.351740371924932</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.687696335709603</v>
+        <v>1.680812014863228</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.133424398190325</v>
+        <v>2.119163965556892</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.600525570602691</v>
+        <v>2.58367820127657</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.926785831788669</v>
+        <v>0.93854163798379</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.378662988554178</v>
+        <v>1.383550049589887</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.089538561546879</v>
+        <v>2.081667148159787</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.1226226827059</v>
+        <v>3.108491470440417</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.684422224201429</v>
+        <v>3.686055422481482</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.820556138899917</v>
+        <v>3.80977010306441</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.024646257786007</v>
+        <v>2.011980410068153</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.508820770194369</v>
+        <v>2.489359977538597</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.923738897961991</v>
+        <v>2.919107509620015</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.597952525656734</v>
+        <v>1.615411993991321</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.229190838081398</v>
+        <v>1.229640949905842</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.35410430349299</v>
+        <v>1.360913497359697</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.621975285463134</v>
+        <v>3.60717078263295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.924212646854329</v>
+        <v>2.926399270721376</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.889281353978001</v>
+        <v>2.870378054907727</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.670077415307269</v>
+        <v>2.664534870442756</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.123200864933108</v>
+        <v>2.10872450750658</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.191879023680854</v>
+        <v>2.185927920847411</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.034440903221023</v>
+        <v>2.011411137822792</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.444188705681477</v>
+        <v>1.4528106215</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.666203802748456</v>
+        <v>1.68028014503971</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.009196737580772</v>
+        <v>3.984280842432805</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.229880970901681</v>
+        <v>3.232711941149575</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.227654094007808</v>
+        <v>3.228369023135057</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.971019425869721</v>
+        <v>2.979514379665726</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.322259688320732</v>
+        <v>2.326960513496846</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.449123311643998</v>
+        <v>2.444964432850474</v>
       </c>
     </row>
     <row r="25">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.041021406705887</v>
+        <v>1.039597077914005</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.727370237646286</v>
+        <v>1.732179904286144</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.765920717526383</v>
+        <v>1.766835261198421</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.580223799182637</v>
+        <v>3.590489213872712</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.360199791121989</v>
+        <v>3.350887733040242</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.352461771334829</v>
+        <v>3.370231716569776</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.356476792674746</v>
+        <v>2.366305520376155</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.595442826377818</v>
+        <v>2.593307086072666</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.603139328712214</v>
+        <v>2.601841147128573</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.301340376378721</v>
+        <v>1.305121716691261</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.982022703570717</v>
+        <v>1.986031105490512</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.925324979921824</v>
+        <v>1.934608327568055</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.982056432840027</v>
+        <v>3.994068754306417</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.672905873271225</v>
+        <v>3.668829130119766</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.602579721940134</v>
+        <v>3.609019856796555</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.63158252916375</v>
+        <v>2.648371946571694</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.810551834340939</v>
+        <v>2.798407685016775</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.776667260239293</v>
+        <v>2.773418315854409</v>
       </c>
     </row>
     <row r="28">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.145404483415161</v>
+        <v>1.153428295596955</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.389394342612992</v>
+        <v>1.386569722126838</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.63474523908511</v>
+        <v>1.6362844884082</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.474423732102193</v>
+        <v>3.471078312616116</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.486383428978086</v>
+        <v>3.495000951832664</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.423576153990554</v>
+        <v>3.41812592478227</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.34767509448155</v>
+        <v>2.34450547994658</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.472920167314253</v>
+        <v>2.479217628407039</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.574673789206053</v>
+        <v>2.573436702887179</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.273161238974792</v>
+        <v>1.282837732001741</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.501974692271378</v>
+        <v>1.499674930946184</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.738136889652747</v>
+        <v>1.744077322549727</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.654077673223283</v>
+        <v>3.637341718750594</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.642527230377398</v>
+        <v>3.649517707046703</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.564638205125299</v>
+        <v>3.559178749879329</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.468764757836584</v>
+        <v>2.47103897222979</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.583084670326666</v>
+        <v>2.591248360608509</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.675633787433281</v>
+        <v>2.672687914897995</v>
       </c>
     </row>
     <row r="31">
